--- a/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed After Review.xlsx
+++ b/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed After Review.xlsx
@@ -466,35 +466,35 @@
     <col width="48" customWidth="1" min="18" max="18"/>
     <col width="9" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="34" customWidth="1" min="21" max="21"/>
-    <col width="36" customWidth="1" min="22" max="22"/>
-    <col width="41" customWidth="1" min="23" max="23"/>
-    <col width="43" customWidth="1" min="24" max="24"/>
+    <col width="44" customWidth="1" min="21" max="21"/>
+    <col width="46" customWidth="1" min="22" max="22"/>
+    <col width="30" customWidth="1" min="23" max="23"/>
+    <col width="32" customWidth="1" min="24" max="24"/>
     <col width="31" customWidth="1" min="25" max="25"/>
     <col width="33" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
-    <col width="30" customWidth="1" min="28" max="28"/>
-    <col width="47" customWidth="1" min="29" max="29"/>
-    <col width="49" customWidth="1" min="30" max="30"/>
-    <col width="33" customWidth="1" min="31" max="31"/>
-    <col width="35" customWidth="1" min="32" max="32"/>
-    <col width="34" customWidth="1" min="33" max="33"/>
-    <col width="36" customWidth="1" min="34" max="34"/>
-    <col width="37" customWidth="1" min="35" max="35"/>
-    <col width="39" customWidth="1" min="36" max="36"/>
-    <col width="34" customWidth="1" min="37" max="37"/>
-    <col width="36" customWidth="1" min="38" max="38"/>
-    <col width="49" customWidth="1" min="39" max="39"/>
-    <col width="39" customWidth="1" min="40" max="40"/>
-    <col width="36" customWidth="1" min="41" max="41"/>
-    <col width="44" customWidth="1" min="42" max="42"/>
-    <col width="39" customWidth="1" min="43" max="43"/>
-    <col width="32" customWidth="1" min="44" max="44"/>
-    <col width="34" customWidth="1" min="45" max="45"/>
-    <col width="35" customWidth="1" min="46" max="46"/>
-    <col width="37" customWidth="1" min="47" max="47"/>
-    <col width="32" customWidth="1" min="48" max="48"/>
-    <col width="34" customWidth="1" min="49" max="49"/>
+    <col width="34" customWidth="1" min="27" max="27"/>
+    <col width="36" customWidth="1" min="28" max="28"/>
+    <col width="31" customWidth="1" min="29" max="29"/>
+    <col width="33" customWidth="1" min="30" max="30"/>
+    <col width="35" customWidth="1" min="31" max="31"/>
+    <col width="37" customWidth="1" min="32" max="32"/>
+    <col width="42" customWidth="1" min="33" max="33"/>
+    <col width="44" customWidth="1" min="34" max="34"/>
+    <col width="32" customWidth="1" min="35" max="35"/>
+    <col width="34" customWidth="1" min="36" max="36"/>
+    <col width="29" customWidth="1" min="37" max="37"/>
+    <col width="31" customWidth="1" min="38" max="38"/>
+    <col width="40" customWidth="1" min="39" max="39"/>
+    <col width="30" customWidth="1" min="40" max="40"/>
+    <col width="27" customWidth="1" min="41" max="41"/>
+    <col width="35" customWidth="1" min="42" max="42"/>
+    <col width="30" customWidth="1" min="43" max="43"/>
+    <col width="27" customWidth="1" min="44" max="44"/>
+    <col width="29" customWidth="1" min="45" max="45"/>
+    <col width="30" customWidth="1" min="46" max="46"/>
+    <col width="32" customWidth="1" min="47" max="47"/>
+    <col width="27" customWidth="1" min="48" max="48"/>
+    <col width="29" customWidth="1" min="49" max="49"/>
     <col width="26" customWidth="1" min="50" max="50"/>
   </cols>
   <sheetData>
@@ -601,147 +601,147 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>link_executionPlan_executions_id</t>
+          <t>link_executionDetails_internalRoleLinkName</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>link_executionPlan_executions_id_1</t>
+          <t>link_executionDetails_internalRoleLinkName_1</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>link_executionPlan_internalRoleLinkName</t>
+          <t>link_executionDetails_job_id</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>link_executionPlan_internalRoleLinkName_1</t>
+          <t>link_executionDetails_job_id_1</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>link_executionPlan_project_id</t>
+          <t>link_executionDetails_plan_id</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>link_executionPlan_project_id_1</t>
+          <t>link_executionDetails_plan_id_1</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>link_executionPlan_team_id</t>
+          <t>link_executionDetails_project_id</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>link_executionPlan_team_id_1</t>
+          <t>link_executionDetails_project_id_1</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>link_jobExecutionDetails_internalRoleLinkName</t>
+          <t>link_executionDetails_team_id</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>link_jobExecutionDetails_internalRoleLinkName_1</t>
+          <t>link_executionDetails_team_id_1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>link_jobExecutionDetails_job_id</t>
+          <t>link_executionLinks_executions_id</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>link_jobExecutionDetails_job_id_1</t>
+          <t>link_executionLinks_executions_id_1</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>link_jobExecutionDetails_plan_id</t>
+          <t>link_executionLinks_internalRoleLinkName</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>link_jobExecutionDetails_plan_id_1</t>
+          <t>link_executionLinks_internalRoleLinkName_1</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>link_jobExecutionDetails_project_id</t>
+          <t>link_executionLinks_project_id</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>link_jobExecutionDetails_project_id_1</t>
+          <t>link_executionLinks_project_id_1</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>link_jobExecutionDetails_team_id</t>
+          <t>link_executionLinks_team_id</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>link_jobExecutionDetails_team_id_1</t>
+          <t>link_executionLinks_team_id_1</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>link_testProjectNavigation_internalRoleLinkName</t>
+          <t>link_projectLinks_internalRoleLinkName</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>link_testProjectNavigation_project_id</t>
+          <t>link_projectLinks_project_id</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>link_testProjectNavigation_team_id</t>
+          <t>link_projectLinks_team_id</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>link_testProjectNavigation_test_project_id</t>
+          <t>link_projectLinks_test_project_id</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>link_testProjectNavigation_trNthChild</t>
+          <t>link_projectLinks_trNthChild</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunNavigation_plan_id</t>
+          <t>link_testRunLinks_plan_id</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunNavigation_plan_id_1</t>
+          <t>link_testRunLinks_plan_id_1</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunNavigation_project_id</t>
+          <t>link_testRunLinks_project_id</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunNavigation_project_id_1</t>
+          <t>link_testRunLinks_project_id_1</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunNavigation_team_id</t>
+          <t>link_testRunLinks_team_id</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunNavigation_team_id_1</t>
+          <t>link_testRunLinks_team_id_1</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
@@ -853,72 +853,72 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>837097</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>837132</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1588984</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>1588984</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>1570311</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>1570311</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>837097</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>837132</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
